--- a/robot_Anton_Roscher/news_searches.xlsx
+++ b/robot_Anton_Roscher/news_searches.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="garmin" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="garmin1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="garmin2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1127,768 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Japan’s Nikkei 225 share benchmark has touched an all-time high, bypassing its previous record set in December 1989.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-02-22 03:57:37</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Garmin_Ltd.png.png</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Palo Alto Networks, Keysight fall; Garmin, Toll Brothers rise, Wednesday, 2/21/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Stocks that traded heavily or had substantial price changes on Wednesday: Palo Alto Networks, Keysight fall; Garmin, Toll Brothers rise.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-02-21 21:24:35</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Palo_Alto_Networks_Keysight_fall;_Garmin_Toll_Brothers_rise_Wednesday_2/21/2024.png.png</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/robot_Anton_Roscher/news_searches.xlsx
+++ b/robot_Anton_Roscher/news_searches.xlsx
@@ -11,6 +11,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="garmin" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="garmin1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="garmin2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump5" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump6" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump7" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,6 +436,2674 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title_has_money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trump trial live updates: Jury selection nears an end in hush money case</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A jury of 12 New Yorkers was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-19 12:04:55</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Trump_trial_live_updates:_Jury_selection_nears_an_end_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>46</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AP Top News at 7:44 a.m. EDT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iran fires at apparent Israeli attack drones near Isfahan air base and nuclear site
+DUBAI, United Arab Emirates (AP) — An apparent Israeli drone attack on Iran saw troops fire air defenses at a major air base and a nuclear site early Friday morning near the central city of Isfahan, an assault coming in retaliation for Tehran’s unprecedented drone-and-missile assault on Israel. No I</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:44:51</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_7:44_am_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>71</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iran fires at apparent Israeli attack drones near Isfahan air base and nuclear site</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>An apparent Israeli drone attack on Iran saw troops fire air defenses at a major air base and a nuclear site near the central city of Isfahan.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:38:49</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Iran_fires_at_apparent_Israeli_attack_drones_near_Isfahan_air_base_and_nuclear_site.png.png</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>41</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP Decision Notes: What to expect in Pennsylvania’s presidential and state primaries</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>President Joe Biden and former President Donald Trump will go before voters next week in Pennsylvania’s presidential primaries.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:18:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AP_Decision_Notes:_What_to_expect_in_Pennsylvania’s_presidential_and_state_primaries.png.png</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jury selection could be nearing a close in Donald Trump’s hush money trial in New York</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A third panel of potential jurors is set to be questioned in Donald Trump’s hush money case, drawing jury selection a step closer to completion in the first criminal trial of a former U.S. president.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:03:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jury_selection_could_be_nearing_a_close_in_Donald_Trump’s_hush_money_trial_in_New_York.png.png</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Biden’s new Title IX rules protect LGBTQ+ students, but transgender sports rule still on hold</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The rights of LGBTQ+ students will be protected by federal law and victims of campus sexual assault will gain new safeguards under new rules from the Biden administration.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:00:48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Biden’s_new_Title_IX_rules_protect_LGBTQ+_students_but_transgender_sports_rule_still_on_hold.png.png</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>43</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>House leaders toil to advance Ukraine and Israel aid. But threats to oust speaker grow</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>House congressional leaders are toiling on a delicate, bipartisan push towards weekend votes to approve a $95 billion package of foreign aid for Ukraine, Israel and Taiwan, as well as several other national security policies.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:48</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>House_leaders_toil_to_advance_Ukraine_and_Israel_aid_But_threats_to_oust_speaker_grow.png.png</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Judge in Trump case orders media not to report where potential jurors work</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The judge in Donald Trump’s hush money trial has ordered the media not to report where potential jurors have worked.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:47:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Judge_in_Trump_case_orders_media_not_to_report_where_potential_jurors_work.png.png</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12 jurors have been picked for Donald Trump’s hush money trial. Selection of alternates is ongoing</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A jury of 12 people has been seated in former President Donald Trump’s hush money trial in New York. Alternates are now being selected.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:35:25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12_jurors_have_been_picked_for_Donald_Trump’s_hush_money_trial_Selection_of_alternates_is_ongoing.png.png</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AP Top Stories April 19 A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Here’s the latest for Friday April 19th: Iran fires air defense system amid tensions with Israel; House could vote on foreign aid this weekend; More Trump jury selection; 15 members of Kennedy family endorse Biden.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:02:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AP_Top_Stories_April_19_A.png.png</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>41</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>One Notable Number</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-04-19 08:46:52</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>One_Notable_Number.png.png</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AP Week in Pictures: Global</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>April 12-18, 2024
+The flame for the Paris Olympics was lit at the birthplace of the ancient Olympic Games in southern Greece.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:58:48</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AP_Week_in_Pictures:_Global.png.png</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AP Top News at 11:46 p.m. EDT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries in provinces as explosions heard near Isfahan
+DUBAI, United Arab Emirates (AP) — Iran fired air defense batteries early Friday morning as explosions could be heard near a major air base near Isfahan, raising fears of a possible Israeli strike following Tehran’s unprecedented drone-and-missile assault on the country. It remained unclear if the c</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:44</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_11:46_pm_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Biden administration moves to make conservation an equal to industry on US lands</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The Biden administration is moving to let conservationists lease government land for restoration. It’s part of an effort to make conservation an “equal” to other uses of public lands such as drilling and livestock grazing.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:57</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Biden_administration_moves_to_make_conservation_an_equal_to_industry_on_US_lands.png.png</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>48</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Prominent Baptist pastor in military-ruled Myanmar detained again hours after release from prison</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A prominent Christian church leader and human rights advocate from Myanmar’s Kachin ethnic minority has been detained just hours after he was released from prison by the military government.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Prominent_Baptist_pastor_in_military-ruled_Myanmar_detained_again_hours_after_release_from_prison.png.png</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>42</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AP Explains: 12 jurors now picked for Donald Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:42:01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AP_Explains:_12_jurors_now_picked_for_Donald_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>44</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs attend rally denying genocide was committed in Srebrenica in 1995</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs have rallied to deny that genocide was committed in Srebrenica in 1995, despite rulings to the contrary by two United Nations courts.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thousands_of_Bosnian_Serbs_attend_rally_denying_genocide_was_committed_in_Srebrenica_in_1995.png.png</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pennsylvania school district cancels actor’s speech over his activism and ‘lifestyle’</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A Pennsylvania school district has canceled an upcoming appearance by actor and children’s book author Maulik Pancholy.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:40:38</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pennsylvania_school_district_cancels_actor’s_speech_over_his_activism_and_‘lifestyle’.png.png</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Social media searches play central role at jury selection for Trump’s first criminal trial</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>The jury selection process at the historic criminal trial of former President Donald Trump can already credit modern technology for shaping the eventual panel.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:46:51</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Social_media_searches_play_central_role_at_jury_selection_for_Trump’s_first_criminal_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>38</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Highlights from day 3 of Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Today’s live coverage has ended. Catch up on what you missed below and follow the latest at apnews.com.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:47:06</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Highlights_from_day_3_of_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>President Joe Biden has accepted endorsements from at least 15 members of the Kennedy political family.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:33:11</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Trump leaves court after 12 jurors seated in hush money trial</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Twelve jurors and one alternate have been seated in Donald Trump’s hush money case, quickly propelling the jury selection process forward after a morning that saw two previously sworn-in jurors dismissed.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:22:17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Trump_leaves_court_after_12_jurors_seated_in_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>42</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Robert F. Kennedy Jr. secures ballot access in battleground state of Michigan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Independent presidential candidate Robert F. Kennedy Jr. has secured a place on the ballot in the battleground state of Michigan.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:16:47</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Robert_F_Kennedy_Jr_secures_ballot_access_in_battleground_state_of_Michigan.png.png</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Trump loses bid to halt Jan. 6 lawsuits while he fights criminal charges in the 2020 election case</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Donald Trump has lost a bid to pause a string of lawsuits accusing him of inciting the U.S. Capitol attack, while the former president fights his 2020 election interference criminal case in Washington.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:45:41</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Trump_loses_bid_to_halt_Jan_6_lawsuits_while_he_fights_criminal_charges_in_the_2020_election_case.png.png</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Trump speaks outside courtroom after 12 jurors are seated in hush money case</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial. (AP Production: Javier Arciga)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:02:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Trump_speaks_outside_courtroom_after_12_jurors_are_seated_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>34</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kansas GOP congressman Jake LaTurner is not running again, citing family reasons</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TOPEKA, Kan. (AP) — Two-term Republican U.S. Rep. Jake LaTurner is not running for reelection this year in his GOP-leaning eastern Kansas district so that he can spend more time with his four young children, he announced Thursday.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:27:36</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kansas_GOP_congressman_Jake_LaTurner_is_not_running_again_citing_family_reasons.png.png</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Senate advances renewal of key US surveillance program as detractors seek changes</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The Senate has advanced legislation that would reauthorize a key U.S. surveillance tool as lawmakers and the Biden administration rushed to tamp down fresh concerns about the program violating Americans’ civil liberties.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:26:54</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Senate_advances_renewal_of_key_US_surveillance_program_as_detractors_seek_changes.png.png</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>44</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>US and UK issue new sanctions on Iran in response to Tehran’s weekend attack on Israel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The U.S. and U.K. have imposed a new round of sanctions on Iran as concern grows that Tehran’s unprecedented attack on Israel could fuel a wider war in the Middle East.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:16:48</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>US_and_UK_issue_new_sanctions_on_Iran_in_response_to_Tehran’s_weekend_attack_on_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AP Explains: Two jurors dismissed in Trump hush money trial</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Two jurors in former President Donald Trump’s hush money trial were dismissed Thursday, one after expressing doubt about her ability to be fair and impartial and the other over concerns that some of his answers in court may not have been accurate.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:39:01</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AP_Explains:_Two_jurors_dismissed_in_Trump_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>52</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>What’s inside the $95 billion House package focused on aiding Ukraine and Israel</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Speaker Mike Johnson has unveiled a long-awaited package of bills that will provide military aid to Ukraine and Israel, replenish U.S. weapons systems and give humanitarian assistance to civilians in Gaza.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:28:46</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>What’s_inside_the_$95_billion_House_package_focused_on_aiding_Ukraine_and_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>44</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title_has_money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trump trial live updates: Jury selection nears an end in hush money case</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A jury of 12 New Yorkers was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-19 12:04:55</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Trump_trial_live_updates:_Jury_selection_nears_an_end_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>46</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AP Top News at 7:44 a.m. EDT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iran fires at apparent Israeli attack drones near Isfahan air base and nuclear site
+DUBAI, United Arab Emirates (AP) — An apparent Israeli drone attack on Iran saw troops fire air defenses at a major air base and a nuclear site early Friday morning near the central city of Isfahan, an assault coming in retaliation for Tehran’s unprecedented drone-and-missile assault on Israel. No I</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:44:51</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_7:44_am_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>71</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iran fires at apparent Israeli attack drones near Isfahan air base and nuclear site</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>An apparent Israeli drone attack on Iran saw troops fire air defenses at a major air base and a nuclear site near the central city of Isfahan.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:38:49</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Iran_fires_at_apparent_Israeli_attack_drones_near_Isfahan_air_base_and_nuclear_site.png.png</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>41</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP Decision Notes: What to expect in Pennsylvania’s presidential and state primaries</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>President Joe Biden and former President Donald Trump will go before voters next week in Pennsylvania’s presidential primaries.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:18:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AP_Decision_Notes:_What_to_expect_in_Pennsylvania’s_presidential_and_state_primaries.png.png</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jury selection could be nearing a close in Donald Trump’s hush money trial in New York</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A third panel of potential jurors is set to be questioned in Donald Trump’s hush money case, drawing jury selection a step closer to completion in the first criminal trial of a former U.S. president.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:03:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jury_selection_could_be_nearing_a_close_in_Donald_Trump’s_hush_money_trial_in_New_York.png.png</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Biden’s new Title IX rules protect LGBTQ+ students, but transgender sports rule still on hold</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The rights of LGBTQ+ students will be protected by federal law and victims of campus sexual assault will gain new safeguards under new rules from the Biden administration.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:00:48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Biden’s_new_Title_IX_rules_protect_LGBTQ+_students_but_transgender_sports_rule_still_on_hold.png.png</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>43</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>House leaders toil to advance Ukraine and Israel aid. But threats to oust speaker grow</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>House congressional leaders are toiling on a delicate, bipartisan push towards weekend votes to approve a $95 billion package of foreign aid for Ukraine, Israel and Taiwan, as well as several other national security policies.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:48</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>House_leaders_toil_to_advance_Ukraine_and_Israel_aid_But_threats_to_oust_speaker_grow.png.png</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Judge in Trump case orders media not to report where potential jurors work</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The judge in Donald Trump’s hush money trial has ordered the media not to report where potential jurors have worked.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:47:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Judge_in_Trump_case_orders_media_not_to_report_where_potential_jurors_work.png.png</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12 jurors have been picked for Donald Trump’s hush money trial. Selection of alternates is ongoing</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A jury of 12 people has been seated in former President Donald Trump’s hush money trial in New York. Alternates are now being selected.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:35:25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12_jurors_have_been_picked_for_Donald_Trump’s_hush_money_trial_Selection_of_alternates_is_ongoing.png.png</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AP Top Stories April 19 A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Here’s the latest for Friday April 19th: Iran fires air defense system amid tensions with Israel; House could vote on foreign aid this weekend; More Trump jury selection; 15 members of Kennedy family endorse Biden.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:02:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AP_Top_Stories_April_19_A.png.png</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>41</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>One Notable Number</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-04-19 08:46:52</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>One_Notable_Number.png.png</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AP Week in Pictures: Global</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>April 12-18, 2024
+The flame for the Paris Olympics was lit at the birthplace of the ancient Olympic Games in southern Greece.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:58:48</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AP_Week_in_Pictures:_Global.png.png</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AP Top News at 11:46 p.m. EDT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries in provinces as explosions heard near Isfahan
+DUBAI, United Arab Emirates (AP) — Iran fired air defense batteries early Friday morning as explosions could be heard near a major air base near Isfahan, raising fears of a possible Israeli strike following Tehran’s unprecedented drone-and-missile assault on the country. It remained unclear if the c</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:44</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_11:46_pm_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Biden administration moves to make conservation an equal to industry on US lands</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The Biden administration is moving to let conservationists lease government land for restoration. It’s part of an effort to make conservation an “equal” to other uses of public lands such as drilling and livestock grazing.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:57</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Biden_administration_moves_to_make_conservation_an_equal_to_industry_on_US_lands.png.png</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>48</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Prominent Baptist pastor in military-ruled Myanmar detained again hours after release from prison</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A prominent Christian church leader and human rights advocate from Myanmar’s Kachin ethnic minority has been detained just hours after he was released from prison by the military government.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Prominent_Baptist_pastor_in_military-ruled_Myanmar_detained_again_hours_after_release_from_prison.png.png</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>42</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AP Explains: 12 jurors now picked for Donald Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:42:01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AP_Explains:_12_jurors_now_picked_for_Donald_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>44</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs attend rally denying genocide was committed in Srebrenica in 1995</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs have rallied to deny that genocide was committed in Srebrenica in 1995, despite rulings to the contrary by two United Nations courts.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thousands_of_Bosnian_Serbs_attend_rally_denying_genocide_was_committed_in_Srebrenica_in_1995.png.png</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pennsylvania school district cancels actor’s speech over his activism and ‘lifestyle’</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A Pennsylvania school district has canceled an upcoming appearance by actor and children’s book author Maulik Pancholy.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:40:38</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pennsylvania_school_district_cancels_actor’s_speech_over_his_activism_and_‘lifestyle’.png.png</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Social media searches play central role at jury selection for Trump’s first criminal trial</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>The jury selection process at the historic criminal trial of former President Donald Trump can already credit modern technology for shaping the eventual panel.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:46:51</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Social_media_searches_play_central_role_at_jury_selection_for_Trump’s_first_criminal_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>38</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Highlights from day 3 of Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Today’s live coverage has ended. Catch up on what you missed below and follow the latest at apnews.com.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:47:06</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Highlights_from_day_3_of_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>President Joe Biden has accepted endorsements from at least 15 members of the Kennedy political family.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:33:11</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Trump leaves court after 12 jurors seated in hush money trial</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Twelve jurors and one alternate have been seated in Donald Trump’s hush money case, quickly propelling the jury selection process forward after a morning that saw two previously sworn-in jurors dismissed.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:22:17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Trump_leaves_court_after_12_jurors_seated_in_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>42</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Robert F. Kennedy Jr. secures ballot access in battleground state of Michigan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Independent presidential candidate Robert F. Kennedy Jr. has secured a place on the ballot in the battleground state of Michigan.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:16:47</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Robert_F_Kennedy_Jr_secures_ballot_access_in_battleground_state_of_Michigan.png.png</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Trump loses bid to halt Jan. 6 lawsuits while he fights criminal charges in the 2020 election case</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Donald Trump has lost a bid to pause a string of lawsuits accusing him of inciting the U.S. Capitol attack, while the former president fights his 2020 election interference criminal case in Washington.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:45:41</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Trump_loses_bid_to_halt_Jan_6_lawsuits_while_he_fights_criminal_charges_in_the_2020_election_case.png.png</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Trump speaks outside courtroom after 12 jurors are seated in hush money case</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial. (AP Production: Javier Arciga)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:02:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Trump_speaks_outside_courtroom_after_12_jurors_are_seated_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>34</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kansas GOP congressman Jake LaTurner is not running again, citing family reasons</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TOPEKA, Kan. (AP) — Two-term Republican U.S. Rep. Jake LaTurner is not running for reelection this year in his GOP-leaning eastern Kansas district so that he can spend more time with his four young children, he announced Thursday.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:27:36</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kansas_GOP_congressman_Jake_LaTurner_is_not_running_again_citing_family_reasons.png.png</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Senate advances renewal of key US surveillance program as detractors seek changes</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The Senate has advanced legislation that would reauthorize a key U.S. surveillance tool as lawmakers and the Biden administration rushed to tamp down fresh concerns about the program violating Americans’ civil liberties.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:26:54</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Senate_advances_renewal_of_key_US_surveillance_program_as_detractors_seek_changes.png.png</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>44</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>US and UK issue new sanctions on Iran in response to Tehran’s weekend attack on Israel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The U.S. and U.K. have imposed a new round of sanctions on Iran as concern grows that Tehran’s unprecedented attack on Israel could fuel a wider war in the Middle East.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:16:48</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>US_and_UK_issue_new_sanctions_on_Iran_in_response_to_Tehran’s_weekend_attack_on_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AP Explains: Two jurors dismissed in Trump hush money trial</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Two jurors in former President Donald Trump’s hush money trial were dismissed Thursday, one after expressing doubt about her ability to be fair and impartial and the other over concerns that some of his answers in court may not have been accurate.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:39:01</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AP_Explains:_Two_jurors_dismissed_in_Trump_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>52</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>What’s inside the $95 billion House package focused on aiding Ukraine and Israel</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Speaker Mike Johnson has unveiled a long-awaited package of bills that will provide military aid to Ukraine and Israel, replenish U.S. weapons systems and give humanitarian assistance to civilians in Gaza.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:28:46</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>What’s_inside_the_$95_billion_House_package_focused_on_aiding_Ukraine_and_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>44</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title_has_money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AP Decision Notes: What to expect in Pennsylvania’s presidential and state primaries</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>President Joe Biden and former President Donald Trump will go before voters next week in Pennsylvania’s presidential primaries.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:18:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AP_Decision_Notes:_What_to_expect_in_Pennsylvania’s_presidential_and_state_primaries.png.png</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trump trial live updates: Jury selection nears an end in hush money case</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A jury of 12 New Yorkers was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-19 12:08:04</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Trump_trial_live_updates:_Jury_selection_nears_an_end_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>46</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AP Top News at 7:44 a.m. EDT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iran fires at apparent Israeli attack drones near Isfahan air base and nuclear site
+DUBAI, United Arab Emirates (AP) — An apparent Israeli drone attack on Iran saw troops fire air defenses at a major air base and a nuclear site early Friday morning near the central city of Isfahan, an assault coming in retaliation for Tehran’s unprecedented drone-and-missile assault on Israel. No I</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:44:51</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_7:44_am_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>71</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Iran fires at apparent Israeli attack drones near Isfahan air base and nuclear site</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>An apparent Israeli drone attack on Iran saw troops fire air defenses at a major air base and a nuclear site near the central city of Isfahan.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:38:49</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Iran_fires_at_apparent_Israeli_attack_drones_near_Isfahan_air_base_and_nuclear_site.png.png</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jury selection could be nearing a close in Donald Trump’s hush money trial in New York</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A third panel of potential jurors is set to be questioned in Donald Trump’s hush money case, drawing jury selection a step closer to completion in the first criminal trial of a former U.S. president.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:03:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jury_selection_could_be_nearing_a_close_in_Donald_Trump’s_hush_money_trial_in_New_York.png.png</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Biden’s new Title IX rules protect LGBTQ+ students, but transgender sports rule still on hold</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The rights of LGBTQ+ students will be protected by federal law and victims of campus sexual assault will gain new safeguards under new rules from the Biden administration.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:00:48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Biden’s_new_Title_IX_rules_protect_LGBTQ+_students_but_transgender_sports_rule_still_on_hold.png.png</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>43</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>House leaders toil to advance Ukraine and Israel aid. But threats to oust speaker grow</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>House congressional leaders are toiling on a delicate, bipartisan push towards weekend votes to approve a $95 billion package of foreign aid for Ukraine, Israel and Taiwan, as well as several other national security policies.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:48</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>House_leaders_toil_to_advance_Ukraine_and_Israel_aid_But_threats_to_oust_speaker_grow.png.png</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Judge in Trump case orders media not to report where potential jurors work</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The judge in Donald Trump’s hush money trial has ordered the media not to report where potential jurors have worked.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:47:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Judge_in_Trump_case_orders_media_not_to_report_where_potential_jurors_work.png.png</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12 jurors have been picked for Donald Trump’s hush money trial. Selection of alternates is ongoing</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A jury of 12 people has been seated in former President Donald Trump’s hush money trial in New York. Alternates are now being selected.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:35:25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12_jurors_have_been_picked_for_Donald_Trump’s_hush_money_trial_Selection_of_alternates_is_ongoing.png.png</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AP Top Stories April 19 A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Here’s the latest for Friday April 19th: Iran fires air defense system amid tensions with Israel; House could vote on foreign aid this weekend; More Trump jury selection; 15 members of Kennedy family endorse Biden.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:02:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AP_Top_Stories_April_19_A.png.png</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>41</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>One Notable Number</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-04-19 08:46:52</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>One_Notable_Number.png.png</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AP Week in Pictures: Global</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>April 12-18, 2024
+The flame for the Paris Olympics was lit at the birthplace of the ancient Olympic Games in southern Greece.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:58:48</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AP_Week_in_Pictures:_Global.png.png</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AP Top News at 11:46 p.m. EDT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries in provinces as explosions heard near Isfahan
+DUBAI, United Arab Emirates (AP) — Iran fired air defense batteries early Friday morning as explosions could be heard near a major air base near Isfahan, raising fears of a possible Israeli strike following Tehran’s unprecedented drone-and-missile assault on the country. It remained unclear if the c</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:44</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_11:46_pm_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Biden administration moves to make conservation an equal to industry on US lands</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The Biden administration is moving to let conservationists lease government land for restoration. It’s part of an effort to make conservation an “equal” to other uses of public lands such as drilling and livestock grazing.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:57</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Biden_administration_moves_to_make_conservation_an_equal_to_industry_on_US_lands.png.png</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>48</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Prominent Baptist pastor in military-ruled Myanmar detained again hours after release from prison</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A prominent Christian church leader and human rights advocate from Myanmar’s Kachin ethnic minority has been detained just hours after he was released from prison by the military government.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Prominent_Baptist_pastor_in_military-ruled_Myanmar_detained_again_hours_after_release_from_prison.png.png</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>42</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AP Explains: 12 jurors now picked for Donald Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:42:01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AP_Explains:_12_jurors_now_picked_for_Donald_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>44</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs attend rally denying genocide was committed in Srebrenica in 1995</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs have rallied to deny that genocide was committed in Srebrenica in 1995, despite rulings to the contrary by two United Nations courts.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thousands_of_Bosnian_Serbs_attend_rally_denying_genocide_was_committed_in_Srebrenica_in_1995.png.png</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pennsylvania school district cancels actor’s speech over his activism and ‘lifestyle’</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A Pennsylvania school district has canceled an upcoming appearance by actor and children’s book author Maulik Pancholy.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:40:38</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pennsylvania_school_district_cancels_actor’s_speech_over_his_activism_and_‘lifestyle’.png.png</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Social media searches play central role at jury selection for Trump’s first criminal trial</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>The jury selection process at the historic criminal trial of former President Donald Trump can already credit modern technology for shaping the eventual panel.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:46:51</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Social_media_searches_play_central_role_at_jury_selection_for_Trump’s_first_criminal_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>38</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Highlights from day 3 of Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Today’s live coverage has ended. Catch up on what you missed below and follow the latest at apnews.com.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:47:06</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Highlights_from_day_3_of_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>President Joe Biden has accepted endorsements from at least 15 members of the Kennedy political family.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:33:11</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Trump leaves court after 12 jurors seated in hush money trial</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Twelve jurors and one alternate have been seated in Donald Trump’s hush money case, quickly propelling the jury selection process forward after a morning that saw two previously sworn-in jurors dismissed.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:22:17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Trump_leaves_court_after_12_jurors_seated_in_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>42</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Robert F. Kennedy Jr. secures ballot access in battleground state of Michigan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Independent presidential candidate Robert F. Kennedy Jr. has secured a place on the ballot in the battleground state of Michigan.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:16:47</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Robert_F_Kennedy_Jr_secures_ballot_access_in_battleground_state_of_Michigan.png.png</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Trump loses bid to halt Jan. 6 lawsuits while he fights criminal charges in the 2020 election case</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Donald Trump has lost a bid to pause a string of lawsuits accusing him of inciting the U.S. Capitol attack, while the former president fights his 2020 election interference criminal case in Washington.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:45:41</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Trump_loses_bid_to_halt_Jan_6_lawsuits_while_he_fights_criminal_charges_in_the_2020_election_case.png.png</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Trump speaks outside courtroom after 12 jurors are seated in hush money case</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial. (AP Production: Javier Arciga)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:02:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Trump_speaks_outside_courtroom_after_12_jurors_are_seated_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>34</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kansas GOP congressman Jake LaTurner is not running again, citing family reasons</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TOPEKA, Kan. (AP) — Two-term Republican U.S. Rep. Jake LaTurner is not running for reelection this year in his GOP-leaning eastern Kansas district so that he can spend more time with his four young children, he announced Thursday.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:27:36</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kansas_GOP_congressman_Jake_LaTurner_is_not_running_again_citing_family_reasons.png.png</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Senate advances renewal of key US surveillance program as detractors seek changes</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The Senate has advanced legislation that would reauthorize a key U.S. surveillance tool as lawmakers and the Biden administration rushed to tamp down fresh concerns about the program violating Americans’ civil liberties.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:26:54</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Senate_advances_renewal_of_key_US_surveillance_program_as_detractors_seek_changes.png.png</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>44</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>US and UK issue new sanctions on Iran in response to Tehran’s weekend attack on Israel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The U.S. and U.K. have imposed a new round of sanctions on Iran as concern grows that Tehran’s unprecedented attack on Israel could fuel a wider war in the Middle East.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:16:48</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>US_and_UK_issue_new_sanctions_on_Iran_in_response_to_Tehran’s_weekend_attack_on_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AP Explains: Two jurors dismissed in Trump hush money trial</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Two jurors in former President Donald Trump’s hush money trial were dismissed Thursday, one after expressing doubt about her ability to be fair and impartial and the other over concerns that some of his answers in court may not have been accurate.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:39:01</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AP_Explains:_Two_jurors_dismissed_in_Trump_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>52</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>What’s inside the $95 billion House package focused on aiding Ukraine and Israel</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Speaker Mike Johnson has unveiled a long-awaited package of bills that will provide military aid to Ukraine and Israel, replenish U.S. weapons systems and give humanitarian assistance to civilians in Gaza.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:28:46</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>What’s_inside_the_$95_billion_House_package_focused_on_aiding_Ukraine_and_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>44</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1891,4 +4567,3924 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title_has_money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AP Top News at 3:45 a.m. EDT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries at Isfahan air base and nuclear site after drones spotted
+DUBAI, United Arab Emirates (AP) — Iran fired air defenses at a major air base and a nuclear site near the central city of Isfahan after spotting drones early Friday morning, raising fears of a possible Israeli strike in retaliation for Tehran’s unprecedented drone-and-missile assault on the country</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-19 07:45:15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_3:45_am_EDT.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Judge in Trump case orders media not to report where potential jurors work</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The judge in Donald Trump’s hush money trial has ordered the media not to report where potential jurors have worked.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:47:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Judge_in_Trump_case_orders_media_not_to_report_where_potential_jurors_work.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries at Isfahan air base and nuclear site after drones spotted</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iran has fired air defenses at a major air base and a nuclear site near its central city of Isfahan after spotting drones.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-19 06:40:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Iran_fires_air_defense_batteries_at_Isfahan_air_base_and_nuclear_site_after_drones_spotted.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP Week in Pictures: Global</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>April 12-18, 2024
+The flame for the Paris Olympics was lit at the birthplace of the ancient Olympic Games in southern Greece.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:58:48</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AP_Week_in_Pictures:_Global.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jury selection could be nearing a close in Donald Trump’s hush money trial in New York</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A third panel of potential jurors is set to be questioned in Donald Trump’s hush money case, drawing jury selection a step closer to completion in the first criminal trial of a former U.S. president.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:03:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jury_selection_could_be_nearing_a_close_in_Donald_Trump’s_hush_money_trial_in_New_York.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>House leaders toil to advance Ukraine and Israel aid. But threats to oust speaker grow</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>House congressional leaders are toiling on a delicate, bipartisan push towards weekend votes to approve a $95 billion package of foreign aid for Ukraine, Israel and Taiwan, as well as several other national security policies.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>House_leaders_toil_to_advance_Ukraine_and_Israel_aid_But_threats_to_oust_speaker_grow.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AP Top News at 11:46 p.m. EDT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries in provinces as explosions heard near Isfahan
+DUBAI, United Arab Emirates (AP) — Iran fired air defense batteries early Friday morning as explosions could be heard near a major air base near Isfahan, raising fears of a possible Israeli strike following Tehran’s unprecedented drone-and-missile assault on the country. It remained unclear if the c</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:44</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_11:46_pm_EDT.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Biden administration moves to make conservation an equal to industry on US lands</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Biden administration is moving to let conservationists lease government land for restoration. It’s part of an effort to make conservation an “equal” to other uses of public lands such as drilling and livestock grazing.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:57</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Biden_administration_moves_to_make_conservation_an_equal_to_industry_on_US_lands.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Prominent Baptist pastor in military-ruled Myanmar detained again hours after release from prison</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A prominent Christian church leader and human rights advocate from Myanmar’s Kachin ethnic minority has been detained just hours after he was released from prison by the military government.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:07</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Prominent_Baptist_pastor_in_military-ruled_Myanmar_detained_again_hours_after_release_from_prison.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12 jurors have been picked for Donald Trump’s hush money trial. Selection of alternates is ongoing</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A jury of 12 people has been seated in former President Donald Trump’s hush money trial in New York. Alternates are now being selected.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:35:25</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12_jurors_have_been_picked_for_Donald_Trump’s_hush_money_trial_Selection_of_alternates_is_ongoing.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AP Explains: 12 jurors now picked for Donald Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:42:01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AP_Explains:_12_jurors_now_picked_for_Donald_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs attend rally denying genocide was committed in Srebrenica in 1995</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs have rallied to deny that genocide was committed in Srebrenica in 1995, despite rulings to the contrary by two United Nations courts.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thousands_of_Bosnian_Serbs_attend_rally_denying_genocide_was_committed_in_Srebrenica_in_1995.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pennsylvania school district cancels actor’s speech over his activism and ‘lifestyle’</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A Pennsylvania school district has canceled an upcoming appearance by actor and children’s book author Maulik Pancholy.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:40:38</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pennsylvania_school_district_cancels_actor’s_speech_over_his_activism_and_‘lifestyle’.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Social media searches play central role at jury selection for Trump’s first criminal trial</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The jury selection process at the historic criminal trial of former President Donald Trump can already credit modern technology for shaping the eventual panel.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:46:51</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Social_media_searches_play_central_role_at_jury_selection_for_Trump’s_first_criminal_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Highlights from day 3 of Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Today’s live coverage has ended. Catch up on what you missed below and follow the latest at apnews.com.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:47:06</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Highlights_from_day_3_of_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>President Joe Biden has accepted endorsements from at least 15 members of the Kennedy political family.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:33:11</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Trump leaves court after 12 jurors seated in hush money trial</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Twelve jurors and one alternate have been seated in Donald Trump’s hush money case, quickly propelling the jury selection process forward after a morning that saw two previously sworn-in jurors dismissed.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:22:17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Trump_leaves_court_after_12_jurors_seated_in_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Robert F. Kennedy Jr. secures ballot access in battleground state of Michigan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Independent presidential candidate Robert F. Kennedy Jr. has secured a place on the ballot in the battleground state of Michigan.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:16:47</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Robert_F_Kennedy_Jr_secures_ballot_access_in_battleground_state_of_Michigan.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Trump loses bid to halt Jan. 6 lawsuits while he fights criminal charges in the 2020 election case</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Donald Trump has lost a bid to pause a string of lawsuits accusing him of inciting the U.S. Capitol attack, while the former president fights his 2020 election interference criminal case in Washington.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:45:41</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Trump_loses_bid_to_halt_Jan_6_lawsuits_while_he_fights_criminal_charges_in_the_2020_election_case.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Trump speaks outside courtroom after 12 jurors are seated in hush money case</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial. (AP Production: Javier Arciga)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:02:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trump_speaks_outside_courtroom_after_12_jurors_are_seated_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kansas GOP congressman Jake LaTurner is not running again, citing family reasons</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPEKA, Kan. (AP) — Two-term Republican U.S. Rep. Jake LaTurner is not running for reelection this year in his GOP-leaning eastern Kansas district so that he can spend more time with his four young children, he announced Thursday.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:27:36</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kansas_GOP_congressman_Jake_LaTurner_is_not_running_again_citing_family_reasons.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Senate advances renewal of key US surveillance program as detractors seek changes</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The Senate has advanced legislation that would reauthorize a key U.S. surveillance tool as lawmakers and the Biden administration rushed to tamp down fresh concerns about the program violating Americans’ civil liberties.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:26:54</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Senate_advances_renewal_of_key_US_surveillance_program_as_detractors_seek_changes.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>US and UK issue new sanctions on Iran in response to Tehran’s weekend attack on Israel</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>The U.S. and U.K. have imposed a new round of sanctions on Iran as concern grows that Tehran’s unprecedented attack on Israel could fuel a wider war in the Middle East.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:16:48</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>US_and_UK_issue_new_sanctions_on_Iran_in_response_to_Tehran’s_weekend_attack_on_Israel.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AP Explains: Two jurors dismissed in Trump hush money trial</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Two jurors in former President Donald Trump’s hush money trial were dismissed Thursday, one after expressing doubt about her ability to be fair and impartial and the other over concerns that some of his answers in court may not have been accurate.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:39:01</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>AP_Explains:_Two_jurors_dismissed_in_Trump_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>What’s inside the $95 billion House package focused on aiding Ukraine and Israel</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Speaker Mike Johnson has unveiled a long-awaited package of bills that will provide military aid to Ukraine and Israel, replenish U.S. weapons systems and give humanitarian assistance to civilians in Gaza.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:28:46</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>What’s_inside_the_$95_billion_House_package_focused_on_aiding_Ukraine_and_Israel.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AP Top Stories April 18 P</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Here’s the latest for Thursday, April 18: Two jurors dismissed in Trump case; Kennedy family members endorse Biden; Sanctions on Iran increased; Fiery crash on Chicago-area tollway.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:17:01</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>AP_Top_Stories_April_18_P.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>New York man pleads guilty to sending threats to state attorney general and Trump civil case judge</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A New York man has pleaded guilty to sending death threats to the state attorney general and the Manhattan judge that presided over former President Donald Trump’s civil fraud suit.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:04</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>New_York_man_pleads_guilty_to_sending_threats_to_state_attorney_general_and_Trump_civil_case_judge.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>President Joe Biden accepts endorsements from at least 15 members of the Kennedy political family. Their backing came during a campaign stop in Philadelphia as Biden aims to undermine Republican Donald Trump and independent Robert F.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-04-18 19:34:01</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Climate change concerns grow, but few think Biden’s climate law will help, an AP-NORC poll finds</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A poll from The Associated Press-NORC Center for Public Affairs Research shows 45% of U.S. adults say they’ve become more concerned about climate change over the past year.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-04-18 12:22:41</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Climate_change_concerns_grow_but_few_think_Biden’s_climate_law_will_help_an_AP-NORC_poll_finds.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Trump lawyers say Stormy Daniels refused subpoena outside a Brooklyn bar, papers left ‘at her feet’</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Donald Trump’s legal team says it tried serving a subpoena on Stormy Daniels as she arrived for a screening of her documentary at a gay bar in Brooklyn last month, but the porn actor and hush money trial figure refused to take it and walked away.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-04-18 01:58:40</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Trump_lawyers_say_Stormy_Daniels_refused_subpoena_outside_a_Brooklyn_bar_papers_left_‘at_her_feet’.png.png</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title_has_money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AP Top News at 3:45 a.m. EDT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries at Isfahan air base and nuclear site after drones spotted
+DUBAI, United Arab Emirates (AP) — Iran fired air defenses at a major air base and a nuclear site near the central city of Isfahan after spotting drones early Friday morning, raising fears of a possible Israeli strike in retaliation for Tehran’s unprecedented drone-and-missile assault on the country</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-19 07:45:15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_3:45_am_EDT.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Judge in Trump case orders media not to report where potential jurors work</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The judge in Donald Trump’s hush money trial has ordered the media not to report where potential jurors have worked.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:47:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Judge_in_Trump_case_orders_media_not_to_report_where_potential_jurors_work.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries at Isfahan air base and nuclear site after drones spotted</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iran has fired air defenses at a major air base and a nuclear site near its central city of Isfahan after spotting drones.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-19 06:40:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Iran_fires_air_defense_batteries_at_Isfahan_air_base_and_nuclear_site_after_drones_spotted.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP Week in Pictures: Global</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>April 12-18, 2024
+The flame for the Paris Olympics was lit at the birthplace of the ancient Olympic Games in southern Greece.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:58:48</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AP_Week_in_Pictures:_Global.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jury selection could be nearing a close in Donald Trump’s hush money trial in New York</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A third panel of potential jurors is set to be questioned in Donald Trump’s hush money case, drawing jury selection a step closer to completion in the first criminal trial of a former U.S. president.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:03:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jury_selection_could_be_nearing_a_close_in_Donald_Trump’s_hush_money_trial_in_New_York.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>House leaders toil to advance Ukraine and Israel aid. But threats to oust speaker grow</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>House congressional leaders are toiling on a delicate, bipartisan push towards weekend votes to approve a $95 billion package of foreign aid for Ukraine, Israel and Taiwan, as well as several other national security policies.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>House_leaders_toil_to_advance_Ukraine_and_Israel_aid_But_threats_to_oust_speaker_grow.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AP Top News at 11:46 p.m. EDT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries in provinces as explosions heard near Isfahan
+DUBAI, United Arab Emirates (AP) — Iran fired air defense batteries early Friday morning as explosions could be heard near a major air base near Isfahan, raising fears of a possible Israeli strike following Tehran’s unprecedented drone-and-missile assault on the country. It remained unclear if the c</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:44</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_11:46_pm_EDT.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Biden administration moves to make conservation an equal to industry on US lands</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Biden administration is moving to let conservationists lease government land for restoration. It’s part of an effort to make conservation an “equal” to other uses of public lands such as drilling and livestock grazing.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:57</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Biden_administration_moves_to_make_conservation_an_equal_to_industry_on_US_lands.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Prominent Baptist pastor in military-ruled Myanmar detained again hours after release from prison</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A prominent Christian church leader and human rights advocate from Myanmar’s Kachin ethnic minority has been detained just hours after he was released from prison by the military government.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:07</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Prominent_Baptist_pastor_in_military-ruled_Myanmar_detained_again_hours_after_release_from_prison.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12 jurors have been picked for Donald Trump’s hush money trial. Selection of alternates is ongoing</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A jury of 12 people has been seated in former President Donald Trump’s hush money trial in New York. Alternates are now being selected.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:35:25</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12_jurors_have_been_picked_for_Donald_Trump’s_hush_money_trial_Selection_of_alternates_is_ongoing.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AP Explains: 12 jurors now picked for Donald Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:42:01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AP_Explains:_12_jurors_now_picked_for_Donald_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs attend rally denying genocide was committed in Srebrenica in 1995</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs have rallied to deny that genocide was committed in Srebrenica in 1995, despite rulings to the contrary by two United Nations courts.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thousands_of_Bosnian_Serbs_attend_rally_denying_genocide_was_committed_in_Srebrenica_in_1995.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pennsylvania school district cancels actor’s speech over his activism and ‘lifestyle’</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A Pennsylvania school district has canceled an upcoming appearance by actor and children’s book author Maulik Pancholy.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:40:38</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pennsylvania_school_district_cancels_actor’s_speech_over_his_activism_and_‘lifestyle’.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Social media searches play central role at jury selection for Trump’s first criminal trial</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The jury selection process at the historic criminal trial of former President Donald Trump can already credit modern technology for shaping the eventual panel.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:46:51</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Social_media_searches_play_central_role_at_jury_selection_for_Trump’s_first_criminal_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Highlights from day 3 of Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Today’s live coverage has ended. Catch up on what you missed below and follow the latest at apnews.com.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:47:06</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Highlights_from_day_3_of_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>President Joe Biden has accepted endorsements from at least 15 members of the Kennedy political family.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:33:11</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Trump leaves court after 12 jurors seated in hush money trial</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Twelve jurors and one alternate have been seated in Donald Trump’s hush money case, quickly propelling the jury selection process forward after a morning that saw two previously sworn-in jurors dismissed.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:22:17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Trump_leaves_court_after_12_jurors_seated_in_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Robert F. Kennedy Jr. secures ballot access in battleground state of Michigan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Independent presidential candidate Robert F. Kennedy Jr. has secured a place on the ballot in the battleground state of Michigan.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:16:47</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Robert_F_Kennedy_Jr_secures_ballot_access_in_battleground_state_of_Michigan.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Trump loses bid to halt Jan. 6 lawsuits while he fights criminal charges in the 2020 election case</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Donald Trump has lost a bid to pause a string of lawsuits accusing him of inciting the U.S. Capitol attack, while the former president fights his 2020 election interference criminal case in Washington.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:45:41</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Trump_loses_bid_to_halt_Jan_6_lawsuits_while_he_fights_criminal_charges_in_the_2020_election_case.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Trump speaks outside courtroom after 12 jurors are seated in hush money case</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial. (AP Production: Javier Arciga)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:02:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trump_speaks_outside_courtroom_after_12_jurors_are_seated_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kansas GOP congressman Jake LaTurner is not running again, citing family reasons</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPEKA, Kan. (AP) — Two-term Republican U.S. Rep. Jake LaTurner is not running for reelection this year in his GOP-leaning eastern Kansas district so that he can spend more time with his four young children, he announced Thursday.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:27:36</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kansas_GOP_congressman_Jake_LaTurner_is_not_running_again_citing_family_reasons.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Senate advances renewal of key US surveillance program as detractors seek changes</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The Senate has advanced legislation that would reauthorize a key U.S. surveillance tool as lawmakers and the Biden administration rushed to tamp down fresh concerns about the program violating Americans’ civil liberties.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:26:54</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Senate_advances_renewal_of_key_US_surveillance_program_as_detractors_seek_changes.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>US and UK issue new sanctions on Iran in response to Tehran’s weekend attack on Israel</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>The U.S. and U.K. have imposed a new round of sanctions on Iran as concern grows that Tehran’s unprecedented attack on Israel could fuel a wider war in the Middle East.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:16:48</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>US_and_UK_issue_new_sanctions_on_Iran_in_response_to_Tehran’s_weekend_attack_on_Israel.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AP Explains: Two jurors dismissed in Trump hush money trial</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Two jurors in former President Donald Trump’s hush money trial were dismissed Thursday, one after expressing doubt about her ability to be fair and impartial and the other over concerns that some of his answers in court may not have been accurate.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:39:01</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>AP_Explains:_Two_jurors_dismissed_in_Trump_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>What’s inside the $95 billion House package focused on aiding Ukraine and Israel</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Speaker Mike Johnson has unveiled a long-awaited package of bills that will provide military aid to Ukraine and Israel, replenish U.S. weapons systems and give humanitarian assistance to civilians in Gaza.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:28:46</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>What’s_inside_the_$95_billion_House_package_focused_on_aiding_Ukraine_and_Israel.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AP Top Stories April 18 P</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Here’s the latest for Thursday, April 18: Two jurors dismissed in Trump case; Kennedy family members endorse Biden; Sanctions on Iran increased; Fiery crash on Chicago-area tollway.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:17:01</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>AP_Top_Stories_April_18_P.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>New York man pleads guilty to sending threats to state attorney general and Trump civil case judge</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A New York man has pleaded guilty to sending death threats to the state attorney general and the Manhattan judge that presided over former President Donald Trump’s civil fraud suit.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:04</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>New_York_man_pleads_guilty_to_sending_threats_to_state_attorney_general_and_Trump_civil_case_judge.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>President Joe Biden accepts endorsements from at least 15 members of the Kennedy political family. Their backing came during a campaign stop in Philadelphia as Biden aims to undermine Republican Donald Trump and independent Robert F.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-04-18 19:34:01</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Climate change concerns grow, but few think Biden’s climate law will help, an AP-NORC poll finds</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A poll from The Associated Press-NORC Center for Public Affairs Research shows 45% of U.S. adults say they’ve become more concerned about climate change over the past year.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-04-18 12:22:41</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Climate_change_concerns_grow_but_few_think_Biden’s_climate_law_will_help_an_AP-NORC_poll_finds.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Trump lawyers say Stormy Daniels refused subpoena outside a Brooklyn bar, papers left ‘at her feet’</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Donald Trump’s legal team says it tried serving a subpoena on Stormy Daniels as she arrived for a screening of her documentary at a gay bar in Brooklyn last month, but the porn actor and hush money trial figure refused to take it and walked away.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-04-18 01:58:40</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Trump_lawyers_say_Stormy_Daniels_refused_subpoena_outside_a_Brooklyn_bar_papers_left_‘at_her_feet’.png.png</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title_has_money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AP Top News at 3:45 a.m. EDT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries at Isfahan air base and nuclear site after drones spotted
+DUBAI, United Arab Emirates (AP) — Iran fired air defenses at a major air base and a nuclear site near the central city of Isfahan after spotting drones early Friday morning, raising fears of a possible Israeli strike in retaliation for Tehran’s unprecedented drone-and-missile assault on the country</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-19 07:45:15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_3:45_am_EDT.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Judge in Trump case orders media not to report where potential jurors work</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The judge in Donald Trump’s hush money trial has ordered the media not to report where potential jurors have worked.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:47:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Judge_in_Trump_case_orders_media_not_to_report_where_potential_jurors_work.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries at Isfahan air base and nuclear site after drones spotted</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iran has fired air defenses at a major air base and a nuclear site near its central city of Isfahan after spotting drones.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-19 06:40:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Iran_fires_air_defense_batteries_at_Isfahan_air_base_and_nuclear_site_after_drones_spotted.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP Week in Pictures: Global</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>April 12-18, 2024
+The flame for the Paris Olympics was lit at the birthplace of the ancient Olympic Games in southern Greece.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:58:48</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AP_Week_in_Pictures:_Global.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jury selection could be nearing a close in Donald Trump’s hush money trial in New York</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A third panel of potential jurors is set to be questioned in Donald Trump’s hush money case, drawing jury selection a step closer to completion in the first criminal trial of a former U.S. president.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:03:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jury_selection_could_be_nearing_a_close_in_Donald_Trump’s_hush_money_trial_in_New_York.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>House leaders toil to advance Ukraine and Israel aid. But threats to oust speaker grow</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>House congressional leaders are toiling on a delicate, bipartisan push towards weekend votes to approve a $95 billion package of foreign aid for Ukraine, Israel and Taiwan, as well as several other national security policies.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>House_leaders_toil_to_advance_Ukraine_and_Israel_aid_But_threats_to_oust_speaker_grow.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AP Top News at 11:46 p.m. EDT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries in provinces as explosions heard near Isfahan
+DUBAI, United Arab Emirates (AP) — Iran fired air defense batteries early Friday morning as explosions could be heard near a major air base near Isfahan, raising fears of a possible Israeli strike following Tehran’s unprecedented drone-and-missile assault on the country. It remained unclear if the c</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:44</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_11:46_pm_EDT.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Biden administration moves to make conservation an equal to industry on US lands</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Biden administration is moving to let conservationists lease government land for restoration. It’s part of an effort to make conservation an “equal” to other uses of public lands such as drilling and livestock grazing.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:57</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Biden_administration_moves_to_make_conservation_an_equal_to_industry_on_US_lands.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Prominent Baptist pastor in military-ruled Myanmar detained again hours after release from prison</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A prominent Christian church leader and human rights advocate from Myanmar’s Kachin ethnic minority has been detained just hours after he was released from prison by the military government.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:07</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Prominent_Baptist_pastor_in_military-ruled_Myanmar_detained_again_hours_after_release_from_prison.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12 jurors have been picked for Donald Trump’s hush money trial. Selection of alternates is ongoing</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A jury of 12 people has been seated in former President Donald Trump’s hush money trial in New York. Alternates are now being selected.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:35:25</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12_jurors_have_been_picked_for_Donald_Trump’s_hush_money_trial_Selection_of_alternates_is_ongoing.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AP Explains: 12 jurors now picked for Donald Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:42:01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AP_Explains:_12_jurors_now_picked_for_Donald_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs attend rally denying genocide was committed in Srebrenica in 1995</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs have rallied to deny that genocide was committed in Srebrenica in 1995, despite rulings to the contrary by two United Nations courts.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thousands_of_Bosnian_Serbs_attend_rally_denying_genocide_was_committed_in_Srebrenica_in_1995.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pennsylvania school district cancels actor’s speech over his activism and ‘lifestyle’</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A Pennsylvania school district has canceled an upcoming appearance by actor and children’s book author Maulik Pancholy.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:40:38</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pennsylvania_school_district_cancels_actor’s_speech_over_his_activism_and_‘lifestyle’.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Social media searches play central role at jury selection for Trump’s first criminal trial</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The jury selection process at the historic criminal trial of former President Donald Trump can already credit modern technology for shaping the eventual panel.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:46:51</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Social_media_searches_play_central_role_at_jury_selection_for_Trump’s_first_criminal_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Highlights from day 3 of Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Today’s live coverage has ended. Catch up on what you missed below and follow the latest at apnews.com.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:47:06</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Highlights_from_day_3_of_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>President Joe Biden has accepted endorsements from at least 15 members of the Kennedy political family.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:33:11</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Trump leaves court after 12 jurors seated in hush money trial</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Twelve jurors and one alternate have been seated in Donald Trump’s hush money case, quickly propelling the jury selection process forward after a morning that saw two previously sworn-in jurors dismissed.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:22:17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Trump_leaves_court_after_12_jurors_seated_in_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Robert F. Kennedy Jr. secures ballot access in battleground state of Michigan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Independent presidential candidate Robert F. Kennedy Jr. has secured a place on the ballot in the battleground state of Michigan.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:16:47</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Robert_F_Kennedy_Jr_secures_ballot_access_in_battleground_state_of_Michigan.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Trump loses bid to halt Jan. 6 lawsuits while he fights criminal charges in the 2020 election case</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Donald Trump has lost a bid to pause a string of lawsuits accusing him of inciting the U.S. Capitol attack, while the former president fights his 2020 election interference criminal case in Washington.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:45:41</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Trump_loses_bid_to_halt_Jan_6_lawsuits_while_he_fights_criminal_charges_in_the_2020_election_case.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Trump speaks outside courtroom after 12 jurors are seated in hush money case</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial. (AP Production: Javier Arciga)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:02:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trump_speaks_outside_courtroom_after_12_jurors_are_seated_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kansas GOP congressman Jake LaTurner is not running again, citing family reasons</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TOPEKA, Kan. (AP) — Two-term Republican U.S. Rep. Jake LaTurner is not running for reelection this year in his GOP-leaning eastern Kansas district so that he can spend more time with his four young children, he announced Thursday.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:27:36</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kansas_GOP_congressman_Jake_LaTurner_is_not_running_again_citing_family_reasons.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Senate advances renewal of key US surveillance program as detractors seek changes</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The Senate has advanced legislation that would reauthorize a key U.S. surveillance tool as lawmakers and the Biden administration rushed to tamp down fresh concerns about the program violating Americans’ civil liberties.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:26:54</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Senate_advances_renewal_of_key_US_surveillance_program_as_detractors_seek_changes.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>US and UK issue new sanctions on Iran in response to Tehran’s weekend attack on Israel</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>The U.S. and U.K. have imposed a new round of sanctions on Iran as concern grows that Tehran’s unprecedented attack on Israel could fuel a wider war in the Middle East.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:16:48</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>US_and_UK_issue_new_sanctions_on_Iran_in_response_to_Tehran’s_weekend_attack_on_Israel.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AP Explains: Two jurors dismissed in Trump hush money trial</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Two jurors in former President Donald Trump’s hush money trial were dismissed Thursday, one after expressing doubt about her ability to be fair and impartial and the other over concerns that some of his answers in court may not have been accurate.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:39:01</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>AP_Explains:_Two_jurors_dismissed_in_Trump_hush_money_trial.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>What’s inside the $95 billion House package focused on aiding Ukraine and Israel</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Speaker Mike Johnson has unveiled a long-awaited package of bills that will provide military aid to Ukraine and Israel, replenish U.S. weapons systems and give humanitarian assistance to civilians in Gaza.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:28:46</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>What’s_inside_the_$95_billion_House_package_focused_on_aiding_Ukraine_and_Israel.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AP Top Stories April 18 P</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Here’s the latest for Thursday, April 18: Two jurors dismissed in Trump case; Kennedy family members endorse Biden; Sanctions on Iran increased; Fiery crash on Chicago-area tollway.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:17:01</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>AP_Top_Stories_April_18_P.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>New York man pleads guilty to sending threats to state attorney general and Trump civil case judge</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A New York man has pleaded guilty to sending death threats to the state attorney general and the Manhattan judge that presided over former President Donald Trump’s civil fraud suit.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:04</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>New_York_man_pleads_guilty_to_sending_threats_to_state_attorney_general_and_Trump_civil_case_judge.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>President Joe Biden accepts endorsements from at least 15 members of the Kennedy political family. Their backing came during a campaign stop in Philadelphia as Biden aims to undermine Republican Donald Trump and independent Robert F.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-04-18 19:34:01</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Climate change concerns grow, but few think Biden’s climate law will help, an AP-NORC poll finds</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A poll from The Associated Press-NORC Center for Public Affairs Research shows 45% of U.S. adults say they’ve become more concerned about climate change over the past year.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-04-18 12:22:41</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Climate_change_concerns_grow_but_few_think_Biden’s_climate_law_will_help_an_AP-NORC_poll_finds.png.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Trump lawyers say Stormy Daniels refused subpoena outside a Brooklyn bar, papers left ‘at her feet’</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Donald Trump’s legal team says it tried serving a subpoena on Stormy Daniels as she arrived for a screening of her documentary at a gay bar in Brooklyn last month, but the porn actor and hush money trial figure refused to take it and walked away.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-04-18 01:58:40</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Trump_lawyers_say_Stormy_Daniels_refused_subpoena_outside_a_Brooklyn_bar_papers_left_‘at_her_feet’.png.png</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title_has_money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AP Top News at 5:26 a.m. EDT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iran fires at suspected Israeli attack drones near Isfahan air base and nuclear site
+DUBAI, United Arab Emirates (AP) — Iran fired air defenses at a major air base and a nuclear site early Friday morning near the central city of Isfahan after spotting drones, which were suspected to be part of an Israeli attack in retaliation for Tehran’s unprecedented drone-and-missile assault on t</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:28</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_5:26_am_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Biden’s new Title IX rules protect LGBTQ+ students, but transgender sports rule still on hold</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The rights of LGBTQ+ students will be protected by federal law and victims of campus sexual assault will gain new safeguards under new rules from the Biden administration.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:00:48</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Biden’s_new_Title_IX_rules_protect_LGBTQ+_students_but_transgender_sports_rule_still_on_hold.png.png</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>43</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>House leaders toil to advance Ukraine and Israel aid. But threats to oust speaker grow</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>House congressional leaders are toiling on a delicate, bipartisan push towards weekend votes to approve a $95 billion package of foreign aid for Ukraine, Israel and Taiwan, as well as several other national security policies.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:48</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>House_leaders_toil_to_advance_Ukraine_and_Israel_aid_But_threats_to_oust_speaker_grow.png.png</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Judge in Trump case orders media not to report where potential jurors work</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The judge in Donald Trump’s hush money trial has ordered the media not to report where potential jurors have worked.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:47:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Judge_in_Trump_case_orders_media_not_to_report_where_potential_jurors_work.png.png</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jury selection could be nearing a close in Donald Trump’s hush money trial in New York</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A third panel of potential jurors is set to be questioned in Donald Trump’s hush money case, drawing jury selection a step closer to completion in the first criminal trial of a former U.S. president.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:03:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jury_selection_could_be_nearing_a_close_in_Donald_Trump’s_hush_money_trial_in_New_York.png.png</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iran fires at suspected Israeli attack drones near Isfahan air base and nuclear site</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iran has fired air defenses at a major air base and a nuclear site near the central city of Isfahan after spotting drones.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:07:08</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Iran_fires_at_suspected_Israeli_attack_drones_near_Isfahan_air_base_and_nuclear_site.png.png</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>37</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12 jurors have been picked for Donald Trump’s hush money trial. Selection of alternates is ongoing</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A jury of 12 people has been seated in former President Donald Trump’s hush money trial in New York. Alternates are now being selected.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:35:25</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12_jurors_have_been_picked_for_Donald_Trump’s_hush_money_trial_Selection_of_alternates_is_ongoing.png.png</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AP Top Stories April 19 A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Here’s the latest for Friday April 19th: Iran fires air defense system amid tensions with Israel; House could vote on foreign aid this weekend; More Trump jury selection; 15 members of Kennedy family endorse Biden.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:02:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AP_Top_Stories_April_19_A.png.png</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>41</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>One Notable Number</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-04-19 08:46:52</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>One_Notable_Number.png.png</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AP Week in Pictures: Global</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>April 12-18, 2024
+The flame for the Paris Olympics was lit at the birthplace of the ancient Olympic Games in southern Greece.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:58:48</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AP_Week_in_Pictures:_Global.png.png</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>27</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AP Top News at 11:46 p.m. EDT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries in provinces as explosions heard near Isfahan
+DUBAI, United Arab Emirates (AP) — Iran fired air defense batteries early Friday morning as explosions could be heard near a major air base near Isfahan, raising fears of a possible Israeli strike following Tehran’s unprecedented drone-and-missile assault on the country. It remained unclear if the c</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:44</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_11:46_pm_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>66</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Biden administration moves to make conservation an equal to industry on US lands</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The Biden administration is moving to let conservationists lease government land for restoration. It’s part of an effort to make conservation an “equal” to other uses of public lands such as drilling and livestock grazing.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:57</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Biden_administration_moves_to_make_conservation_an_equal_to_industry_on_US_lands.png.png</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>48</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Prominent Baptist pastor in military-ruled Myanmar detained again hours after release from prison</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A prominent Christian church leader and human rights advocate from Myanmar’s Kachin ethnic minority has been detained just hours after he was released from prison by the military government.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:07</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Prominent_Baptist_pastor_in_military-ruled_Myanmar_detained_again_hours_after_release_from_prison.png.png</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>42</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AP Explains: 12 jurors now picked for Donald Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:42:01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>AP_Explains:_12_jurors_now_picked_for_Donald_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>44</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs attend rally denying genocide was committed in Srebrenica in 1995</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs have rallied to deny that genocide was committed in Srebrenica in 1995, despite rulings to the contrary by two United Nations courts.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thousands_of_Bosnian_Serbs_attend_rally_denying_genocide_was_committed_in_Srebrenica_in_1995.png.png</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pennsylvania school district cancels actor’s speech over his activism and ‘lifestyle’</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A Pennsylvania school district has canceled an upcoming appearance by actor and children’s book author Maulik Pancholy.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:40:38</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pennsylvania_school_district_cancels_actor’s_speech_over_his_activism_and_‘lifestyle’.png.png</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>28</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Social media searches play central role at jury selection for Trump’s first criminal trial</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The jury selection process at the historic criminal trial of former President Donald Trump can already credit modern technology for shaping the eventual panel.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:46:51</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Social_media_searches_play_central_role_at_jury_selection_for_Trump’s_first_criminal_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>38</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Highlights from day 3 of Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Today’s live coverage has ended. Catch up on what you missed below and follow the latest at apnews.com.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:47:06</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Highlights_from_day_3_of_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>27</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>President Joe Biden has accepted endorsements from at least 15 members of the Kennedy political family.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:33:11</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Trump leaves court after 12 jurors seated in hush money trial</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Twelve jurors and one alternate have been seated in Donald Trump’s hush money case, quickly propelling the jury selection process forward after a morning that saw two previously sworn-in jurors dismissed.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:22:17</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trump_leaves_court_after_12_jurors_seated_in_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>42</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Robert F. Kennedy Jr. secures ballot access in battleground state of Michigan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Independent presidential candidate Robert F. Kennedy Jr. has secured a place on the ballot in the battleground state of Michigan.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:16:47</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Robert_F_Kennedy_Jr_secures_ballot_access_in_battleground_state_of_Michigan.png.png</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>32</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Trump loses bid to halt Jan. 6 lawsuits while he fights criminal charges in the 2020 election case</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Donald Trump has lost a bid to pause a string of lawsuits accusing him of inciting the U.S. Capitol attack, while the former president fights his 2020 election interference criminal case in Washington.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:45:41</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Trump_loses_bid_to_halt_Jan_6_lawsuits_while_he_fights_criminal_charges_in_the_2020_election_case.png.png</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>51</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Trump speaks outside courtroom after 12 jurors are seated in hush money case</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial. (AP Production: Javier Arciga)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:02:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Trump_speaks_outside_courtroom_after_12_jurors_are_seated_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>34</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Kansas GOP congressman Jake LaTurner is not running again, citing family reasons</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOPEKA, Kan. (AP) — Two-term Republican U.S. Rep. Jake LaTurner is not running for reelection this year in his GOP-leaning eastern Kansas district so that he can spend more time with his four young children, he announced Thursday.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:27:36</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Kansas_GOP_congressman_Jake_LaTurner_is_not_running_again_citing_family_reasons.png.png</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>50</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Senate advances renewal of key US surveillance program as detractors seek changes</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>The Senate has advanced legislation that would reauthorize a key U.S. surveillance tool as lawmakers and the Biden administration rushed to tamp down fresh concerns about the program violating Americans’ civil liberties.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:26:54</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Senate_advances_renewal_of_key_US_surveillance_program_as_detractors_seek_changes.png.png</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>44</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>US and UK issue new sanctions on Iran in response to Tehran’s weekend attack on Israel</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>The U.S. and U.K. have imposed a new round of sanctions on Iran as concern grows that Tehran’s unprecedented attack on Israel could fuel a wider war in the Middle East.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:16:48</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>US_and_UK_issue_new_sanctions_on_Iran_in_response_to_Tehran’s_weekend_attack_on_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>47</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AP Explains: Two jurors dismissed in Trump hush money trial</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Two jurors in former President Donald Trump’s hush money trial were dismissed Thursday, one after expressing doubt about her ability to be fair and impartial and the other over concerns that some of his answers in court may not have been accurate.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:39:01</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>AP_Explains:_Two_jurors_dismissed_in_Trump_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>52</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>What’s inside the $95 billion House package focused on aiding Ukraine and Israel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Speaker Mike Johnson has unveiled a long-awaited package of bills that will provide military aid to Ukraine and Israel, replenish U.S. weapons systems and give humanitarian assistance to civilians in Gaza.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:28:46</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>What’s_inside_the_$95_billion_House_package_focused_on_aiding_Ukraine_and_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>44</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AP Top Stories April 18 P</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Here’s the latest for Thursday, April 18: Two jurors dismissed in Trump case; Kennedy family members endorse Biden; Sanctions on Iran increased; Fiery crash on Chicago-area tollway.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:17:01</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AP_Top_Stories_April_18_P.png.png</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>33</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>New York man pleads guilty to sending threats to state attorney general and Trump civil case judge</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A New York man has pleaded guilty to sending death threats to the state attorney general and the Manhattan judge that presided over former President Donald Trump’s civil fraud suit.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:04</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>New_York_man_pleads_guilty_to_sending_threats_to_state_attorney_general_and_Trump_civil_case_judge.png.png</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>47</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title_has_money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trump trial live updates: Jury selection continues for hush money case</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A jury of 12 New Yorkers was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-19 12:00:15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Trump_trial_live_updates:_Jury_selection_continues_for_hush_money_case.png.png</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AP Top News at 7:44 a.m. EDT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Iran fires at apparent Israeli attack drones near Isfahan air base and nuclear site
+DUBAI, United Arab Emirates (AP) — An apparent Israeli drone attack on Iran saw troops fire air defenses at a major air base and a nuclear site early Friday morning near the central city of Isfahan, an assault coming in retaliation for Tehran’s unprecedented drone-and-missile assault on Israel. No I</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:44:51</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_7:44_am_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>71</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Iran fires at apparent Israeli attack drones near Isfahan air base and nuclear site</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>An apparent Israeli drone attack on Iran saw troops fire air defenses at a major air base and a nuclear site near the central city of Isfahan.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:38:49</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Iran_fires_at_apparent_Israeli_attack_drones_near_Isfahan_air_base_and_nuclear_site.png.png</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>41</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP Decision Notes: What to expect in Pennsylvania’s presidential and state primaries</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>President Joe Biden and former President Donald Trump will go before voters next week in Pennsylvania’s presidential primaries.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:18:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AP_Decision_Notes:_What_to_expect_in_Pennsylvania’s_presidential_and_state_primaries.png.png</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jury selection could be nearing a close in Donald Trump’s hush money trial in New York</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A third panel of potential jurors is set to be questioned in Donald Trump’s hush money case, drawing jury selection a step closer to completion in the first criminal trial of a former U.S. president.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:03:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Jury_selection_could_be_nearing_a_close_in_Donald_Trump’s_hush_money_trial_in_New_York.png.png</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Biden’s new Title IX rules protect LGBTQ+ students, but transgender sports rule still on hold</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The rights of LGBTQ+ students will be protected by federal law and victims of campus sexual assault will gain new safeguards under new rules from the Biden administration.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:00:48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Biden’s_new_Title_IX_rules_protect_LGBTQ+_students_but_transgender_sports_rule_still_on_hold.png.png</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>43</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>House leaders toil to advance Ukraine and Israel aid. But threats to oust speaker grow</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>House congressional leaders are toiling on a delicate, bipartisan push towards weekend votes to approve a $95 billion package of foreign aid for Ukraine, Israel and Taiwan, as well as several other national security policies.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:48</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>House_leaders_toil_to_advance_Ukraine_and_Israel_aid_But_threats_to_oust_speaker_grow.png.png</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Judge in Trump case orders media not to report where potential jurors work</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The judge in Donald Trump’s hush money trial has ordered the media not to report where potential jurors have worked.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:47:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Judge_in_Trump_case_orders_media_not_to_report_where_potential_jurors_work.png.png</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12 jurors have been picked for Donald Trump’s hush money trial. Selection of alternates is ongoing</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A jury of 12 people has been seated in former President Donald Trump’s hush money trial in New York. Alternates are now being selected.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:35:25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12_jurors_have_been_picked_for_Donald_Trump’s_hush_money_trial_Selection_of_alternates_is_ongoing.png.png</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AP Top Stories April 19 A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Here’s the latest for Friday April 19th: Iran fires air defense system amid tensions with Israel; House could vote on foreign aid this weekend; More Trump jury selection; 15 members of Kennedy family endorse Biden.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:02:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AP_Top_Stories_April_19_A.png.png</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>41</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>One Notable Number</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-04-19 08:46:52</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>One_Notable_Number.png.png</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AP Week in Pictures: Global</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>April 12-18, 2024
+The flame for the Paris Olympics was lit at the birthplace of the ancient Olympic Games in southern Greece.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-04-19 04:58:48</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AP_Week_in_Pictures:_Global.png.png</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AP Top News at 11:46 p.m. EDT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Iran fires air defense batteries in provinces as explosions heard near Isfahan
+DUBAI, United Arab Emirates (AP) — Iran fired air defense batteries early Friday morning as explosions could be heard near a major air base near Isfahan, raising fears of a possible Israeli strike following Tehran’s unprecedented drone-and-missile assault on the country. It remained unclear if the c</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-04-19 03:46:44</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AP_Top_News_at_11:46_pm_EDT.png.png</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Biden administration moves to make conservation an equal to industry on US lands</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The Biden administration is moving to let conservationists lease government land for restoration. It’s part of an effort to make conservation an “equal” to other uses of public lands such as drilling and livestock grazing.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:57</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Biden_administration_moves_to_make_conservation_an_equal_to_industry_on_US_lands.png.png</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>48</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Prominent Baptist pastor in military-ruled Myanmar detained again hours after release from prison</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A prominent Christian church leader and human rights advocate from Myanmar’s Kachin ethnic minority has been detained just hours after he was released from prison by the military government.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:45:07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Prominent_Baptist_pastor_in_military-ruled_Myanmar_detained_again_hours_after_release_from_prison.png.png</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>42</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AP Explains: 12 jurors now picked for Donald Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial, propelling the proceedings closer to opening statements and the start of weeks of dramatic testimony.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-04-19 00:42:01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AP_Explains:_12_jurors_now_picked_for_Donald_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>44</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs attend rally denying genocide was committed in Srebrenica in 1995</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Thousands of Bosnian Serbs have rallied to deny that genocide was committed in Srebrenica in 1995, despite rulings to the contrary by two United Nations courts.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:03:24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thousands_of_Bosnian_Serbs_attend_rally_denying_genocide_was_committed_in_Srebrenica_in_1995.png.png</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pennsylvania school district cancels actor’s speech over his activism and ‘lifestyle’</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A Pennsylvania school district has canceled an upcoming appearance by actor and children’s book author Maulik Pancholy.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-04-18 23:40:38</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pennsylvania_school_district_cancels_actor’s_speech_over_his_activism_and_‘lifestyle’.png.png</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Social media searches play central role at jury selection for Trump’s first criminal trial</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>The jury selection process at the historic criminal trial of former President Donald Trump can already credit modern technology for shaping the eventual panel.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:46:51</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Social_media_searches_play_central_role_at_jury_selection_for_Trump’s_first_criminal_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>38</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Highlights from day 3 of Trump’s hush money trial</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Today’s live coverage has ended. Catch up on what you missed below and follow the latest at apnews.com.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:47:06</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Highlights_from_day_3_of_Trump’s_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kennedy family makes ‘crystal clear’ its Biden endorsement in attempt to deflate RFK Jr.’s candidacy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>President Joe Biden has accepted endorsements from at least 15 members of the Kennedy political family.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:33:11</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kennedy_family_makes_‘crystal_clear’_its_Biden_endorsement_in_attempt_to_deflate_RFK_Jr’s_candidacy.png.png</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Trump leaves court after 12 jurors seated in hush money trial</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Twelve jurors and one alternate have been seated in Donald Trump’s hush money case, quickly propelling the jury selection process forward after a morning that saw two previously sworn-in jurors dismissed.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:22:17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Trump_leaves_court_after_12_jurors_seated_in_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>42</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Robert F. Kennedy Jr. secures ballot access in battleground state of Michigan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Independent presidential candidate Robert F. Kennedy Jr. has secured a place on the ballot in the battleground state of Michigan.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:16:47</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Robert_F_Kennedy_Jr_secures_ballot_access_in_battleground_state_of_Michigan.png.png</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Trump loses bid to halt Jan. 6 lawsuits while he fights criminal charges in the 2020 election case</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Donald Trump has lost a bid to pause a string of lawsuits accusing him of inciting the U.S. Capitol attack, while the former president fights his 2020 election interference criminal case in Washington.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:45:41</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Trump_loses_bid_to_halt_Jan_6_lawsuits_while_he_fights_criminal_charges_in_the_2020_election_case.png.png</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Trump speaks outside courtroom after 12 jurors are seated in hush money case</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A jury of 12 people was seated Thursday in former President Donald Trump’s history-making hush money trial. (AP Production: Javier Arciga)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-04-18 22:02:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Trump_speaks_outside_courtroom_after_12_jurors_are_seated_in_hush_money_case.png.png</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>34</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kansas GOP congressman Jake LaTurner is not running again, citing family reasons</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TOPEKA, Kan. (AP) — Two-term Republican U.S. Rep. Jake LaTurner is not running for reelection this year in his GOP-leaning eastern Kansas district so that he can spend more time with his four young children, he announced Thursday.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:27:36</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kansas_GOP_congressman_Jake_LaTurner_is_not_running_again_citing_family_reasons.png.png</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Senate advances renewal of key US surveillance program as detractors seek changes</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The Senate has advanced legislation that would reauthorize a key U.S. surveillance tool as lawmakers and the Biden administration rushed to tamp down fresh concerns about the program violating Americans’ civil liberties.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:26:54</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Senate_advances_renewal_of_key_US_surveillance_program_as_detractors_seek_changes.png.png</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>44</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>US and UK issue new sanctions on Iran in response to Tehran’s weekend attack on Israel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The U.S. and U.K. have imposed a new round of sanctions on Iran as concern grows that Tehran’s unprecedented attack on Israel could fuel a wider war in the Middle East.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:16:48</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>US_and_UK_issue_new_sanctions_on_Iran_in_response_to_Tehran’s_weekend_attack_on_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AP Explains: Two jurors dismissed in Trump hush money trial</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Two jurors in former President Donald Trump’s hush money trial were dismissed Thursday, one after expressing doubt about her ability to be fair and impartial and the other over concerns that some of his answers in court may not have been accurate.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:39:01</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AP_Explains:_Two_jurors_dismissed_in_Trump_hush_money_trial.png.png</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>52</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>What’s inside the $95 billion House package focused on aiding Ukraine and Israel</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Speaker Mike Johnson has unveiled a long-awaited package of bills that will provide military aid to Ukraine and Israel, replenish U.S. weapons systems and give humanitarian assistance to civilians in Gaza.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-04-18 20:28:46</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>What’s_inside_the_$95_billion_House_package_focused_on_aiding_Ukraine_and_Israel.png.png</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>44</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/robot_Anton_Roscher/news_searches.xlsx
+++ b/robot_Anton_Roscher/news_searches.xlsx
@@ -19,6 +19,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump5" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump6" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump7" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trump8" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2547,7 +2548,6 @@
           <t>One Notable Number</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>2024-04-19 08:46:52</t>
@@ -3097,6 +3097,85 @@
       </c>
       <c r="F31" t="b">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Story_Content</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date_Created</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Image_Filename</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>title_has_money</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pennsylvania board’s cancellation of gay actor’s school visit ill-advised, education leaders say</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>The superintendent and several other top officials of a Pennsylvania school district say their school board’s cancellation of a gay actor’s visit to a middle school was premature and ill-advised.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-04-19 15:23:55</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pennsylvania_board’s_cancellation_of_gay_actor’s_school_visit_ill-advised_education_leaders_say.png.png</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>42</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
